--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9232128393843</v>
+        <v>141.3574043333333</v>
       </c>
       <c r="H2">
-        <v>26.9232128393843</v>
+        <v>424.072213</v>
       </c>
       <c r="I2">
-        <v>0.1594781910224597</v>
+        <v>0.4954750229273862</v>
       </c>
       <c r="J2">
-        <v>0.1594781910224597</v>
+        <v>0.4954750229273862</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N2">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q2">
-        <v>65.33604980142701</v>
+        <v>917.4869708617733</v>
       </c>
       <c r="R2">
-        <v>65.33604980142701</v>
+        <v>8257.382737755959</v>
       </c>
       <c r="S2">
-        <v>0.1001003012152031</v>
+        <v>0.3974535504295279</v>
       </c>
       <c r="T2">
-        <v>0.1001003012152031</v>
+        <v>0.3974535504295278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9232128393843</v>
+        <v>141.3574043333333</v>
       </c>
       <c r="H3">
-        <v>26.9232128393843</v>
+        <v>424.072213</v>
       </c>
       <c r="I3">
-        <v>0.1594781910224597</v>
+        <v>0.4954750229273862</v>
       </c>
       <c r="J3">
-        <v>0.1594781910224597</v>
+        <v>0.4954750229273862</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q3">
-        <v>38.75629462103301</v>
+        <v>226.2740483366663</v>
       </c>
       <c r="R3">
-        <v>38.75629462103301</v>
+        <v>2036.466435029997</v>
       </c>
       <c r="S3">
-        <v>0.05937788980725658</v>
+        <v>0.09802147249785832</v>
       </c>
       <c r="T3">
-        <v>0.05937788980725658</v>
+        <v>0.09802147249785831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>139.534203510238</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H4">
-        <v>139.534203510238</v>
+        <v>421.303475</v>
       </c>
       <c r="I4">
-        <v>0.8265232865900931</v>
+        <v>0.4922401009448182</v>
       </c>
       <c r="J4">
-        <v>0.8265232865900931</v>
+        <v>0.4922401009448182</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N4">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q4">
-        <v>338.615369715877</v>
+        <v>911.4967622066029</v>
       </c>
       <c r="R4">
-        <v>338.615369715877</v>
+        <v>8203.470859859424</v>
       </c>
       <c r="S4">
-        <v>0.5187871107554524</v>
+        <v>0.3948586038270983</v>
       </c>
       <c r="T4">
-        <v>0.5187871107554524</v>
+        <v>0.3948586038270983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>139.534203510238</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H5">
-        <v>139.534203510238</v>
+        <v>421.303475</v>
       </c>
       <c r="I5">
-        <v>0.8265232865900931</v>
+        <v>0.4922401009448182</v>
       </c>
       <c r="J5">
-        <v>0.8265232865900931</v>
+        <v>0.4922401009448182</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N5">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q5">
-        <v>200.8611948809908</v>
+        <v>224.7967208041417</v>
       </c>
       <c r="R5">
-        <v>200.8611948809908</v>
+        <v>2023.170487237275</v>
       </c>
       <c r="S5">
-        <v>0.3077361758346409</v>
+        <v>0.09738149711772</v>
       </c>
       <c r="T5">
-        <v>0.3077361758346409</v>
+        <v>0.09738149711771998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.224758638103779</v>
+        <v>0.248853</v>
       </c>
       <c r="H6">
-        <v>0.224758638103779</v>
+        <v>0.7465590000000001</v>
       </c>
       <c r="I6">
-        <v>0.001331345602595699</v>
+        <v>0.0008722602573388757</v>
       </c>
       <c r="J6">
-        <v>0.001331345602595699</v>
+        <v>0.0008722602573388757</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N6">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q6">
-        <v>0.5454342191645074</v>
+        <v>1.615192258493</v>
       </c>
       <c r="R6">
-        <v>0.5454342191645074</v>
+        <v>14.536730326437</v>
       </c>
       <c r="S6">
-        <v>0.000835650912434774</v>
+        <v>0.0006996981081500805</v>
       </c>
       <c r="T6">
-        <v>0.000835650912434774</v>
+        <v>0.0006996981081500804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.224758638103779</v>
+        <v>0.248853</v>
       </c>
       <c r="H7">
-        <v>0.224758638103779</v>
+        <v>0.7465590000000001</v>
       </c>
       <c r="I7">
-        <v>0.001331345602595699</v>
+        <v>0.0008722602573388757</v>
       </c>
       <c r="J7">
-        <v>0.001331345602595699</v>
+        <v>0.0008722602573388757</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q7">
-        <v>0.3235428122541782</v>
+        <v>0.3983447207190001</v>
       </c>
       <c r="R7">
-        <v>0.3235428122541782</v>
+        <v>3.585102486471</v>
       </c>
       <c r="S7">
-        <v>0.0004956946901609255</v>
+        <v>0.0001725621491887954</v>
       </c>
       <c r="T7">
-        <v>0.0004956946901609255</v>
+        <v>0.0001725621491887954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.13848109554137</v>
+        <v>3.255981999999999</v>
       </c>
       <c r="H8">
-        <v>2.13848109554137</v>
+        <v>9.767945999999998</v>
       </c>
       <c r="I8">
-        <v>0.01266717678485153</v>
+        <v>0.01141261587045664</v>
       </c>
       <c r="J8">
-        <v>0.01266717678485153</v>
+        <v>0.01141261587045664</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N8">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q8">
-        <v>5.189570360388547</v>
+        <v>21.13310637280867</v>
       </c>
       <c r="R8">
-        <v>5.189570360388547</v>
+        <v>190.197957355278</v>
       </c>
       <c r="S8">
-        <v>0.007950856500067103</v>
+        <v>0.009154820096887378</v>
       </c>
       <c r="T8">
-        <v>0.007950856500067103</v>
+        <v>0.009154820096887378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.13848109554137</v>
+        <v>3.255981999999999</v>
       </c>
       <c r="H9">
-        <v>2.13848109554137</v>
+        <v>9.767945999999998</v>
       </c>
       <c r="I9">
-        <v>0.01266717678485153</v>
+        <v>0.01141261587045664</v>
       </c>
       <c r="J9">
-        <v>0.01266717678485153</v>
+        <v>0.01141261587045664</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N9">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q9">
-        <v>3.078369727816115</v>
+        <v>5.211925274985999</v>
       </c>
       <c r="R9">
-        <v>3.078369727816115</v>
+        <v>46.90732747487399</v>
       </c>
       <c r="S9">
-        <v>0.004716320284784432</v>
+        <v>0.002257795773569265</v>
       </c>
       <c r="T9">
-        <v>0.004716320284784432</v>
+        <v>0.002257795773569265</v>
       </c>
     </row>
   </sheetData>
